--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +426,156 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603303</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -496,10 +647,8 @@
           <t>卫光生物</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002880</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2880</v>
       </c>
       <c r="E2" t="n">
         <v>29.51</v>

--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,24 +485,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广宇集团</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2133</v>
+          <t>河钢股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000709</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -513,38 +516,38 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>百隆东方</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>603303</t>
+          <t>601339</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>5.7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -556,12 +559,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -571,6 +574,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -495,16 +496,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>河钢股份</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>000709</t>
+          <t>000932</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.38</v>
+        <v>5.76</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -516,7 +517,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,21 +534,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>601339</t>
+          <t>000623</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.7</v>
+        <v>19.94</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -559,12 +560,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -637,24 +638,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>河钢股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2133</v>
+        <v>709</v>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -666,36 +667,36 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>百隆东方</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603303</v>
+        <v>601339</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>5.7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -707,12 +708,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -722,6 +723,154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,10 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,26 +488,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>天润乳业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>000932</t>
+          <t>600419</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.76</v>
+        <v>11.28</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -517,38 +519,38 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-27 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>吉林敖东</t>
+          <t>丰元股份</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>000623</t>
+          <t>002805</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.94</v>
+        <v>13.41</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -560,10 +562,96 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-27 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603137</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉诚国际</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603535</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
         </is>
@@ -643,19 +731,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>河钢股份</t>
+          <t>中山公用</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="E2" t="n">
-        <v>2.38</v>
+        <v>10.57</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -667,12 +755,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -689,14 +777,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601339</v>
+        <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>5.7</v>
+        <v>20.76</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -708,7 +796,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -786,24 +874,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2133</v>
+        <v>932</v>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>5.76</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -815,19 +903,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -837,14 +925,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603303</v>
+        <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>19.94</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -856,7 +944,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -871,6 +959,302 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>河钢股份</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>709</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>百隆东方</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>601339</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,21 +494,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天润乳业</t>
+          <t>丰元股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>600419</t>
+          <t>002805</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.28</v>
+        <v>12.33</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -519,139 +520,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-27 09:30</t>
+          <t>2025-08-28 13:27</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LHW-九凤鸣岐</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>丰元股份</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002805</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-27 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LHW-九凤鸣岐</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603137</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-27 09:30</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 卖出</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LHW-九凤鸣岐</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉诚国际</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603535</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-27 09:30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
         </is>
@@ -668,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,7 +598,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -736,14 +608,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中山公用</t>
+          <t>天润乳业</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>685</v>
+        <v>600419</v>
       </c>
       <c r="E2" t="n">
-        <v>10.57</v>
+        <v>11.28</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -755,7 +627,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-25 09:30</t>
+          <t>2025-08-27 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -767,7 +639,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -777,14 +649,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>吉林敖东</t>
+          <t>丰元股份</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>623</v>
+        <v>2805</v>
       </c>
       <c r="E3" t="n">
-        <v>20.76</v>
+        <v>13.41</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -796,12 +668,94 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-25 09:30</t>
+          <t>2025-08-27 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603137</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉诚国际</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -879,19 +833,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>中山公用</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>932</v>
+        <v>685</v>
       </c>
       <c r="E2" t="n">
-        <v>5.76</v>
+        <v>10.57</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -903,12 +857,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -920,7 +874,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -932,7 +886,7 @@
         <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>19.94</v>
+        <v>20.76</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -944,12 +898,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1032,14 +986,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>河钢股份</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>709</v>
+        <v>932</v>
       </c>
       <c r="E2" t="n">
-        <v>2.38</v>
+        <v>5.76</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1051,7 +1005,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1068,19 +1022,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601339</v>
+        <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>5.7</v>
+        <v>19.94</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1092,12 +1046,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -1170,24 +1124,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>河钢股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2133</v>
+        <v>709</v>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1199,36 +1153,36 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>百隆东方</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603303</v>
+        <v>601339</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>5.7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1240,12 +1194,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1255,6 +1209,154 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,13 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,21 +495,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>丰元股份</t>
+          <t>中体产业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002805</t>
+          <t>600158</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.33</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -520,12 +521,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 13:27</t>
+          <t>2025-08-29 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -535,6 +536,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2805</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 13:27</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -756,154 +864,6 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中山公用</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>685</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>吉林敖东</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>623</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -981,19 +941,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>中山公用</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>932</v>
+        <v>685</v>
       </c>
       <c r="E2" t="n">
-        <v>5.76</v>
+        <v>10.57</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,12 +965,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1022,7 +982,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1034,7 +994,7 @@
         <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>19.94</v>
+        <v>20.76</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1046,12 +1006,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1134,14 +1094,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>河钢股份</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>709</v>
+        <v>932</v>
       </c>
       <c r="E2" t="n">
-        <v>2.38</v>
+        <v>5.76</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1153,7 +1113,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1170,19 +1130,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601339</v>
+        <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>5.7</v>
+        <v>19.94</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1194,12 +1154,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -1272,24 +1232,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>河钢股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2133</v>
+        <v>709</v>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1301,36 +1261,36 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>百隆东方</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603303</v>
+        <v>601339</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>5.7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1342,12 +1302,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1357,6 +1317,154 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,14 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -495,21 +496,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中体产业</t>
+          <t>北方股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>600158</t>
+          <t>600262</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.949999999999999</v>
+        <v>23.07</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -521,12 +522,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29 09:30</t>
+          <t>2025-09-01 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -604,19 +605,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>丰元股份</t>
+          <t>中体产业</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2805</v>
+        <v>600158</v>
       </c>
       <c r="E2" t="n">
-        <v>12.33</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -628,12 +629,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 13:27</t>
+          <t>2025-08-29 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -643,6 +644,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2805</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 13:27</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -864,154 +972,6 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中山公用</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>685</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>吉林敖东</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>623</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1089,19 +1049,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>中山公用</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>932</v>
+        <v>685</v>
       </c>
       <c r="E2" t="n">
-        <v>5.76</v>
+        <v>10.57</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,12 +1073,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1090,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1142,7 +1102,7 @@
         <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>19.94</v>
+        <v>20.76</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1154,12 +1114,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1242,14 +1202,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>河钢股份</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>709</v>
+        <v>932</v>
       </c>
       <c r="E2" t="n">
-        <v>2.38</v>
+        <v>5.76</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1261,7 +1221,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1278,19 +1238,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601339</v>
+        <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>5.7</v>
+        <v>19.94</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1302,12 +1262,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -1380,24 +1340,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>河钢股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2133</v>
+        <v>709</v>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1409,36 +1369,36 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>百隆东方</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603303</v>
+        <v>601339</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>5.7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1450,12 +1410,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1465,6 +1425,154 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,15 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,6 +434,244 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南山铝业</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600219</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安道麦A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000553</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>塔牌集团</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>联发股份</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002394</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -496,21 +735,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北方股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600262</t>
-        </is>
+          <t>卫光生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2880</v>
       </c>
       <c r="E2" t="n">
-        <v>23.07</v>
+        <v>29.51</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -522,12 +759,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-01 09:30</t>
+          <t>2025-08-13 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -605,19 +842,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中体产业</t>
+          <t>北方股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600158</v>
+        <v>600262</v>
       </c>
       <c r="E2" t="n">
-        <v>8.949999999999999</v>
+        <v>23.07</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -629,12 +866,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29 09:30</t>
+          <t>2025-09-01 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -712,19 +949,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>丰元股份</t>
+          <t>中体产业</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2805</v>
+        <v>600158</v>
       </c>
       <c r="E2" t="n">
-        <v>12.33</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -736,12 +973,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 13:27</t>
+          <t>2025-08-29 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -751,6 +988,113 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2805</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 13:27</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -972,154 +1316,6 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中山公用</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>685</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>吉林敖东</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>623</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1197,19 +1393,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>中山公用</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>932</v>
+        <v>685</v>
       </c>
       <c r="E2" t="n">
-        <v>5.76</v>
+        <v>10.57</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1221,12 +1417,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1434,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1250,7 +1446,7 @@
         <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>19.94</v>
+        <v>20.76</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1262,12 +1458,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1350,14 +1546,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>河钢股份</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>709</v>
+        <v>932</v>
       </c>
       <c r="E2" t="n">
-        <v>2.38</v>
+        <v>5.76</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1369,7 +1565,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1386,19 +1582,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601339</v>
+        <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>5.7</v>
+        <v>19.94</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1410,12 +1606,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -1488,24 +1684,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>河钢股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2133</v>
+        <v>709</v>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1517,36 +1713,36 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>百隆东方</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603303</v>
+        <v>601339</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>5.7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1558,12 +1754,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1646,14 +1842,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>卫光生物</t>
+          <t>广宇集团</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2880</v>
+        <v>2133</v>
       </c>
       <c r="E2" t="n">
-        <v>29.51</v>
+        <v>3.25</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1665,12 +1861,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-13 09:30</t>
+          <t>2025-08-15 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,16 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,21 +498,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南山铝业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600219</t>
-        </is>
+          <t>城建发展</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>600266</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5.14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -523,12 +522,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -545,16 +544,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安道麦A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000553</t>
-        </is>
+          <t>宝新能源</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>690</v>
       </c>
       <c r="E3" t="n">
-        <v>7.01</v>
+        <v>4.65</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -566,7 +563,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,21 +580,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>塔牌集团</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002233</t>
-        </is>
+          <t>渤海租赁</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>415</v>
       </c>
       <c r="E4" t="n">
-        <v>9.119999999999999</v>
+        <v>3.38</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -609,38 +604,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 10:34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>联发股份</t>
+          <t>天润乳业</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002394</t>
+          <t>600419</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.74</v>
+        <v>10.36</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -652,12 +647,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 14:42</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -667,6 +662,154 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -779,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +980,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -847,14 +990,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北方股份</t>
+          <t>南山铝业</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600262</v>
+        <v>600219</v>
       </c>
       <c r="E2" t="n">
-        <v>23.07</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -866,12 +1009,135 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-01 09:30</t>
+          <t>2025-09-02 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安道麦A</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>553</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>塔牌集团</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2233</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>联发股份</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2394</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -949,19 +1215,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中体产业</t>
+          <t>北方股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600158</v>
+        <v>600262</v>
       </c>
       <c r="E2" t="n">
-        <v>8.949999999999999</v>
+        <v>23.07</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -973,12 +1239,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29 09:30</t>
+          <t>2025-09-01 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -1056,19 +1322,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>丰元股份</t>
+          <t>中体产业</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2805</v>
+        <v>600158</v>
       </c>
       <c r="E2" t="n">
-        <v>12.33</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1080,12 +1346,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 13:27</t>
+          <t>2025-08-29 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1095,6 +1361,113 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2805</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 13:27</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1316,154 +1689,6 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中山公用</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>685</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>吉林敖东</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>623</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1541,19 +1766,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>中山公用</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>932</v>
+        <v>685</v>
       </c>
       <c r="E2" t="n">
-        <v>5.76</v>
+        <v>10.57</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1565,12 +1790,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1807,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1594,7 +1819,7 @@
         <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>19.94</v>
+        <v>20.76</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1606,12 +1831,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1694,14 +1919,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>河钢股份</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>709</v>
+        <v>932</v>
       </c>
       <c r="E2" t="n">
-        <v>2.38</v>
+        <v>5.76</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1713,7 +1938,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1730,19 +1955,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601339</v>
+        <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>5.7</v>
+        <v>19.94</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1754,12 +1979,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -1832,24 +2057,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>河钢股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2133</v>
+        <v>709</v>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1861,36 +2086,36 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>百隆东方</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603303</v>
+        <v>601339</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>5.7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1902,12 +2127,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,17 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +494,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,14 +504,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>城建发展</t>
+          <t>精达股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600266</v>
+        <v>600577</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14</v>
+        <v>8.52</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -522,7 +523,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-03 09:30</t>
+          <t>2025-09-04 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -534,24 +535,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝新能源</t>
+          <t>得邦照明</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>690</v>
+        <v>603303</v>
       </c>
       <c r="E3" t="n">
-        <v>4.65</v>
+        <v>14.22</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -563,12 +564,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-03 09:30</t>
+          <t>2025-09-04 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -580,19 +581,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>渤海租赁</t>
+          <t>精工钢构</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>415</v>
+        <v>600496</v>
       </c>
       <c r="E4" t="n">
-        <v>3.38</v>
+        <v>3.57</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -604,19 +605,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-03 10:34</t>
+          <t>2025-09-04 09:30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -626,16 +627,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天润乳业</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>600419</t>
+          <t>000623</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.36</v>
+        <v>18.89</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -647,7 +648,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-03 14:42</t>
+          <t>2025-09-04 10:52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -725,24 +726,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>河钢股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2133</v>
+        <v>709</v>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -754,36 +755,36 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>百隆东方</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603303</v>
+        <v>601339</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>5.7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -795,12 +796,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -810,6 +811,154 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -985,19 +1134,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南山铝业</t>
+          <t>城建发展</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600219</v>
+        <v>600266</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5.14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1009,12 +1158,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1031,14 +1180,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安道麦A</t>
+          <t>宝新能源</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>553</v>
+        <v>690</v>
       </c>
       <c r="E3" t="n">
-        <v>7.01</v>
+        <v>4.65</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1050,7 +1199,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1067,19 +1216,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>塔牌集团</t>
+          <t>渤海租赁</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2233</v>
+        <v>415</v>
       </c>
       <c r="E4" t="n">
-        <v>9.119999999999999</v>
+        <v>3.38</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,36 +1240,36 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 10:34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>联发股份</t>
+          <t>天润乳业</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2394</v>
+        <v>600419</v>
       </c>
       <c r="E5" t="n">
-        <v>10.74</v>
+        <v>10.36</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1132,12 +1281,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 14:42</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,7 +1359,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1220,14 +1369,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北方股份</t>
+          <t>南山铝业</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600262</v>
+        <v>600219</v>
       </c>
       <c r="E2" t="n">
-        <v>23.07</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1239,12 +1388,135 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-01 09:30</t>
+          <t>2025-09-02 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安道麦A</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>553</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>塔牌集团</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2233</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>联发股份</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2394</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1322,19 +1594,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中体产业</t>
+          <t>北方股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600158</v>
+        <v>600262</v>
       </c>
       <c r="E2" t="n">
-        <v>8.949999999999999</v>
+        <v>23.07</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1346,12 +1618,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29 09:30</t>
+          <t>2025-09-01 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -1429,19 +1701,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>丰元股份</t>
+          <t>中体产业</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2805</v>
+        <v>600158</v>
       </c>
       <c r="E2" t="n">
-        <v>12.33</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1453,12 +1725,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 13:27</t>
+          <t>2025-08-29 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1468,6 +1740,113 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2805</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 13:27</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1689,154 +2068,6 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中山公用</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>685</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>吉林敖东</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>623</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1914,19 +2145,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>中山公用</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>932</v>
+        <v>685</v>
       </c>
       <c r="E2" t="n">
-        <v>5.76</v>
+        <v>10.57</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1938,12 +2169,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1955,7 +2186,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1967,7 +2198,7 @@
         <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>19.94</v>
+        <v>20.76</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1979,12 +2210,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -2067,14 +2298,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>河钢股份</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>709</v>
+        <v>932</v>
       </c>
       <c r="E2" t="n">
-        <v>2.38</v>
+        <v>5.76</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2086,7 +2317,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2103,19 +2334,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601339</v>
+        <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>5.7</v>
+        <v>19.94</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2127,12 +2358,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Lhw_portfolio_today.xlsx
@@ -7,19 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -500,21 +501,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>辽宁成大</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>600739</t>
+          <t>000932</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.31</v>
+        <v>5.85</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -526,12 +527,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-05 09:30</t>
+          <t>2025-09-08 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -543,21 +544,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南山控股</t>
+          <t>中绿电</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002314</t>
+          <t>000537</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.85</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -569,12 +570,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-05 09:30</t>
+          <t>2025-09-08 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -586,21 +587,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>首钢股份</t>
+          <t>三钢闽光</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>000959</t>
+          <t>002110</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.02</v>
+        <v>4.37</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -612,12 +613,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-05 09:30</t>
+          <t>2025-09-08 09:30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -695,19 +696,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>中山公用</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>932</v>
+        <v>685</v>
       </c>
       <c r="E2" t="n">
-        <v>5.76</v>
+        <v>10.57</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -719,12 +720,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -736,7 +737,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -748,7 +749,7 @@
         <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>19.94</v>
+        <v>20.76</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -760,12 +761,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-22 09:30</t>
+          <t>2025-08-25 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -848,14 +849,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>河钢股份</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>709</v>
+        <v>932</v>
       </c>
       <c r="E2" t="n">
-        <v>2.38</v>
+        <v>5.76</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -867,7 +868,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -884,19 +885,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601339</v>
+        <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>5.7</v>
+        <v>19.94</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -908,12 +909,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-22 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -986,24 +987,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>河钢股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2133</v>
+        <v>709</v>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1015,36 +1016,36 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>百隆东方</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603303</v>
+        <v>601339</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>5.7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1056,12 +1057,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:30</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1071,6 +1072,154 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1183,7 +1332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,24 +1390,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>精达股份</t>
+          <t>辽宁成大</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600577</v>
+        <v>600739</v>
       </c>
       <c r="E2" t="n">
-        <v>8.52</v>
+        <v>12.31</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1270,36 +1419,36 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-04 09:30</t>
+          <t>2025-09-05 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>南山控股</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603303</v>
+        <v>2314</v>
       </c>
       <c r="E3" t="n">
-        <v>14.22</v>
+        <v>2.85</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1311,12 +1460,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-04 09:30</t>
+          <t>2025-09-05 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -1328,19 +1477,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>精工钢构</t>
+          <t>首钢股份</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>600496</v>
+        <v>959</v>
       </c>
       <c r="E4" t="n">
-        <v>3.57</v>
+        <v>4.02</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1352,51 +1501,10 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-04 09:30</t>
+          <t>2025-09-05 09:30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>吉林敖东</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>623</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-04 10:52</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
         </is>
@@ -1471,7 +1579,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1481,14 +1589,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>城建发展</t>
+          <t>精达股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600266</v>
+        <v>600577</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14</v>
+        <v>8.52</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1500,7 +1608,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-03 09:30</t>
+          <t>2025-09-04 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1512,24 +1620,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝新能源</t>
+          <t>得邦照明</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>690</v>
+        <v>603303</v>
       </c>
       <c r="E3" t="n">
-        <v>4.65</v>
+        <v>14.22</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1541,12 +1649,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-03 09:30</t>
+          <t>2025-09-04 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1558,19 +1666,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>渤海租赁</t>
+          <t>精工钢构</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>415</v>
+        <v>600496</v>
       </c>
       <c r="E4" t="n">
-        <v>3.38</v>
+        <v>3.57</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1582,19 +1690,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-03 10:34</t>
+          <t>2025-09-04 09:30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1604,14 +1712,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天润乳业</t>
+          <t>吉林敖东</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>600419</v>
+        <v>623</v>
       </c>
       <c r="E5" t="n">
-        <v>10.36</v>
+        <v>18.89</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1623,7 +1731,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-03 14:42</t>
+          <t>2025-09-04 10:52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1706,19 +1814,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南山铝业</t>
+          <t>城建发展</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600219</v>
+        <v>600266</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5.14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1730,12 +1838,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -1752,14 +1860,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安道麦A</t>
+          <t>宝新能源</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>553</v>
+        <v>690</v>
       </c>
       <c r="E3" t="n">
-        <v>7.01</v>
+        <v>4.65</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1771,7 +1879,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1788,19 +1896,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>塔牌集团</t>
+          <t>渤海租赁</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2233</v>
+        <v>415</v>
       </c>
       <c r="E4" t="n">
-        <v>9.119999999999999</v>
+        <v>3.38</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1812,36 +1920,36 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 10:34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>LHW-九凤鸣岐</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>联发股份</t>
+          <t>天润乳业</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2394</v>
+        <v>600419</v>
       </c>
       <c r="E5" t="n">
-        <v>10.74</v>
+        <v>10.36</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1853,12 +1961,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-02 09:30</t>
+          <t>2025-09-03 14:42</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1931,7 +2039,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1941,14 +2049,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北方股份</t>
+          <t>南山铝业</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600262</v>
+        <v>600219</v>
       </c>
       <c r="E2" t="n">
-        <v>23.07</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1960,12 +2068,135 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-01 09:30</t>
+          <t>2025-09-02 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安道麦A</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>553</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>塔牌集团</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2233</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>联发股份</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2394</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -2043,19 +2274,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中体产业</t>
+          <t>北方股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600158</v>
+        <v>600262</v>
       </c>
       <c r="E2" t="n">
-        <v>8.949999999999999</v>
+        <v>23.07</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2067,12 +2298,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29 09:30</t>
+          <t>2025-09-01 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 买入</t>
+          <t>量化王策略信号 - 卖出</t>
         </is>
       </c>
     </row>
@@ -2150,19 +2381,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>丰元股份</t>
+          <t>中体产业</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2805</v>
+        <v>600158</v>
       </c>
       <c r="E2" t="n">
-        <v>12.33</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2174,12 +2405,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 13:27</t>
+          <t>2025-08-29 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>量化王策略信号 - 卖出</t>
+          <t>量化王策略信号 - 买入</t>
         </is>
       </c>
     </row>
@@ -2189,6 +2420,113 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2805</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 13:27</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2416,152 +2754,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中山公用</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>685</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>吉林敖东</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>623</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 买入</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>